--- a/src/full/synthetic/final/J3/summary_0826_server_scale5_a1_b0.5.xlsx
+++ b/src/full/synthetic/final/J3/summary_0826_server_scale5_a1_b0.5.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Dropbox\USC\publication\TBsimulationCode\src\full\synthetic\final\J3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{7357E31C-C97D-4107-BE30-01A5B65C168E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2C9D34A-C62A-4DEB-BD62-F9327C460057}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_0826_server_scale5_a1_b" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,7 +618,7 @@
             <c:v>GPUCB</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1852,7 +1852,7 @@
             <c:v>D-GPUCB</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3086,7 +3086,7 @@
             <c:v>EI</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -4320,7 +4320,7 @@
             <c:v>POI</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -5566,20 +5566,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5601,7 +5587,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2000" b="1"/>
-                  <a:t>iteration</a:t>
+                  <a:t>Iterations</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5635,7 +5621,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5684,20 +5670,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5719,7 +5691,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2000" b="1"/>
-                  <a:t>regret</a:t>
+                  <a:t>Average Regret</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5754,7 +5726,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5797,7 +5769,11 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -6777,11 +6753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:OK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
